--- a/biology/Zoologie/Indotyphlops_schmutzi/Indotyphlops_schmutzi.xlsx
+++ b/biology/Zoologie/Indotyphlops_schmutzi/Indotyphlops_schmutzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotyphlops schmutzi est une espèce de serpents de la famille des Typhlopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotyphlops schmutzi est une espèce de serpents de la famille des Typhlopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Petites îles de la Sonde en Indonésie. Elle se rencontre sur les îles de Komodo et de Florès[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Petites îles de la Sonde en Indonésie. Elle se rencontre sur les îles de Komodo et de Florès.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indotyphlops schmutzi[2] mesure entre 58 et 140 mm dont 0 mm pour la queue. Son dos est brun rosé, légèrement plus clair sur sa face ventrale. Son museau, le dessous de sa queue et son extrémité sont blancs. Les juvéniles sont un peu plus clairs que les adultes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indotyphlops schmutzi mesure entre 58 et 140 mm dont 0 mm pour la queue. Son dos est brun rosé, légèrement plus clair sur sa face ventrale. Son museau, le dessous de sa queue et son extrémité sont blancs. Les juvéniles sont un peu plus clairs que les adultes.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste et révérend Erwin Schmutz[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste et révérend Erwin Schmutz.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Auffenberg, 1980 : The herpetofauna of Komodo, with notes on adjacent areas. Bulletin of the Florida State Museum of Natural History, Biological Sciences, vol. 25, no 2, p. 39-156 (texte intégral).</t>
         </is>
